--- a/config/xlsx/外观.xlsx
+++ b/config/xlsx/外观.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClionProjects\xlsx2json\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaatou_can/Documents/ClionProjects/uranus/config/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25A99E5-8180-44D7-8DC8-F62D32A370C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC9E693-F614-A341-9D09-2CEF1A3AC8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -88,6 +88,30 @@
   </si>
   <si>
     <t>Directory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"10011": 1, "10201":2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"10011": 1, "10202":2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,7 +306,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -567,15 +591,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="1" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="18">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -586,7 +611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="18">
       <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
@@ -605,62 +630,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8FDF4B-CE3B-440C-9964-EA718BD8B140}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19.9140625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="18">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="18">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="18">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="17">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -668,17 +706,23 @@
         <v>10</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="17">
       <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/xlsx/外观.xlsx
+++ b/config/xlsx/外观.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaatou_can/Documents/ClionProjects/uranus/config/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClionProjects\uranus\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC9E693-F614-A341-9D09-2CEF1A3AC8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE83AA2-D1E1-4EBA-A573-5385DCD8F791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>{"10011": 1, "10202":2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,12 +607,12 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -611,7 +623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18">
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
@@ -630,19 +642,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8FDF4B-CE3B-440C-9964-EA718BD8B140}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,13 +662,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -664,13 +679,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -678,13 +696,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -694,35 +715,44 @@
       <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="10">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
